--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432235.2854098626</v>
+        <v>429796.812310116</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>333.9459465427772</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>158.0767678895081</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>121.0160992322442</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>117.6430894927146</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657065</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>121.5760921225967</v>
+        <v>28.78048096121135</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>323.6637250476225</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>173.5578851713674</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>218.2383461616752</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>251.1382003403121</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329285</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>303.3585789652492</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>12.52261576225256</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>161.5883269196784</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>148.1185786361433</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833905</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>28.68281686619607</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>95.81917536083746</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637018</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>33.58398714686928</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053477</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179874</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>563.5047572728756</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>226.1856193508785</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>226.1856193508785</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>226.1856193508785</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2972.837166339055</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2850.598682266082</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286.6419270710064</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="C4" t="n">
-        <v>286.6419270710064</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="D4" t="n">
-        <v>286.6419270710064</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="E4" t="n">
-        <v>286.6419270710064</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="F4" t="n">
-        <v>286.6419270710064</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="G4" t="n">
-        <v>286.6419270710064</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450105</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145366</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>507.4345062145366</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V4" t="n">
-        <v>507.4345062145366</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="W4" t="n">
-        <v>507.4345062145366</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="X4" t="n">
-        <v>507.4345062145366</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="Y4" t="n">
-        <v>286.6419270710064</v>
+        <v>95.58330932229589</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1148.09812134261</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3150.294826486578</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3150.294826486578</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3150.294826486578</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2797.526171216464</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.060412955384</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.921080979572</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.5194080306463</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,19 +4732,19 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
         <v>831.0565485757129</v>
@@ -4753,22 +4753,22 @@
         <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>610.6137746750309</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>953.6440892486883</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,10 +4814,10 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883008</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2765.652537847403</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,70 +4857,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.516633439125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>461.8675266085669</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450119</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450119</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450119</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="V10" t="n">
-        <v>474.516633439125</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="W10" t="n">
-        <v>474.516633439125</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X10" t="n">
-        <v>474.516633439125</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.516633439125</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,25 +5291,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>95.584050252739</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861992</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>559.3040775751642</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>411.3909839927711</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F19" t="n">
-        <v>264.5010364948607</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>264.5010364948607</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>122.7892053370588</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>414.4022433768879</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6605733532801</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253733</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782917</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038304</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797706</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,58 +7163,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>47.98442352948462</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>248.7150014462248</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>115.9745339531094</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294759</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.46607471595149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.642773058292314e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.4467738245922</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>52.58301945236947</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303796</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,13 +24175,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>50.61478728573171</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922721</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295126</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.7240910182355</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>218.5536561769587</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194055</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347514</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>951767.6284220596</v>
+        <v>951767.6284220591</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631197</v>
+        <v>354580.09686312</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855344</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
-      <c r="D2" t="n">
-        <v>389994.8406855348</v>
-      </c>
       <c r="E2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
         <v>383394.6348527531</v>
@@ -26335,19 +26335,19 @@
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="N2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383394.6348527531</v>
       </c>
       <c r="O2" t="n">
         <v>383394.6348527527</v>
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>5.610093858194886e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.489356204079481e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138758</v>
+        <v>51041.8603913873</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
@@ -26436,22 +26436,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1133140.449817253</v>
+        <v>-1133326.843205792</v>
       </c>
       <c r="C6" t="n">
-        <v>188464.1560200881</v>
+        <v>188464.1560200886</v>
       </c>
       <c r="D6" t="n">
-        <v>188464.1560200888</v>
+        <v>188464.1560200885</v>
       </c>
       <c r="E6" t="n">
-        <v>-57967.05282037633</v>
+        <v>-58001.79074581232</v>
       </c>
       <c r="F6" t="n">
-        <v>267445.4089869786</v>
+        <v>267410.6710615429</v>
       </c>
       <c r="G6" t="n">
-        <v>267445.4089869787</v>
+        <v>267410.6710615426</v>
       </c>
       <c r="H6" t="n">
-        <v>267445.4089869783</v>
+        <v>267410.6710615431</v>
       </c>
       <c r="I6" t="n">
-        <v>267445.4089869783</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="J6" t="n">
-        <v>49914.206589701</v>
+        <v>49879.4686642653</v>
       </c>
       <c r="K6" t="n">
-        <v>267445.4089869785</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="L6" t="n">
-        <v>267445.4089869784</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="M6" t="n">
-        <v>182390.3810514666</v>
+        <v>182355.6431260308</v>
       </c>
       <c r="N6" t="n">
-        <v>267445.4089869786</v>
+        <v>267410.6710615428</v>
       </c>
       <c r="O6" t="n">
-        <v>267445.4089869782</v>
+        <v>267410.6710615425</v>
       </c>
       <c r="P6" t="n">
-        <v>267445.4089869783</v>
+        <v>267410.6710615426</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.777460801033677e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>136.5309964978123</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.594849163339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>23.17892279172412</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>83.21232069408893</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30.36008496825275</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27825,16 +27825,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>67.97349204393768</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.9994429835159053</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>257.6521825393332</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>45.88238975216382</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>154.7242053363753</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>124.6235112859345</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353158</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245835</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>732.482598761492</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048109</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>436.0678650906015</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>216.8572963387063</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,19 +33500,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,16 +33521,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597634</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609568</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394736</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187893</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>302.0934576762713</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>90.01966967203961</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326294932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191328</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
